--- a/Results.xlsx
+++ b/Results.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,7 +51,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -406,13 +462,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122:D127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.45"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -2510,13 +2566,1077 @@
         <v/>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>VH1</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>50</v>
+      </c>
+      <c r="C110" t="n">
+        <v>49.85</v>
+      </c>
+      <c r="D110" t="n">
+        <v>50.15</v>
+      </c>
+      <c r="E110" t="n">
+        <v>50</v>
+      </c>
+      <c r="F110">
+        <f>IF(AND(E110&gt;=C110,E110&lt;=D110), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="B111" t="n">
+        <v>100</v>
+      </c>
+      <c r="C111" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D111" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E111" t="n">
+        <v>100</v>
+      </c>
+      <c r="F111">
+        <f>IF(AND(E111&gt;=C111,E111&lt;=D111), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="n">
+        <v>150</v>
+      </c>
+      <c r="C112" t="n">
+        <v>149.55</v>
+      </c>
+      <c r="D112" t="n">
+        <v>150.45</v>
+      </c>
+      <c r="E112" t="n">
+        <v>150</v>
+      </c>
+      <c r="F112">
+        <f>IF(AND(E112&gt;=C112,E112&lt;=D112), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="n">
+        <v>200</v>
+      </c>
+      <c r="C113" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="E113" t="n">
+        <v>200</v>
+      </c>
+      <c r="F113">
+        <f>IF(AND(E113&gt;=C113,E113&lt;=D113), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="n">
+        <v>250</v>
+      </c>
+      <c r="C114" t="n">
+        <v>249.25</v>
+      </c>
+      <c r="D114" t="n">
+        <v>250.75</v>
+      </c>
+      <c r="E114" t="n">
+        <v>250</v>
+      </c>
+      <c r="F114">
+        <f>IF(AND(E114&gt;=C114,E114&lt;=D114), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="B115" t="n">
+        <v>300</v>
+      </c>
+      <c r="C115" t="n">
+        <v>299</v>
+      </c>
+      <c r="D115" t="n">
+        <v>301</v>
+      </c>
+      <c r="E115" t="n">
+        <v>301</v>
+      </c>
+      <c r="F115">
+        <f>IF(AND(E115&gt;=C115,E115&lt;=D115), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>VH2</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>50</v>
+      </c>
+      <c r="C116" t="n">
+        <v>49.85</v>
+      </c>
+      <c r="D116" t="n">
+        <v>50.15</v>
+      </c>
+      <c r="E116" t="n">
+        <v>50</v>
+      </c>
+      <c r="F116">
+        <f>IF(AND(E116&gt;=C116,E116&lt;=D116), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="B117" t="n">
+        <v>100</v>
+      </c>
+      <c r="C117" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D117" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E117" t="n">
+        <v>100</v>
+      </c>
+      <c r="F117">
+        <f>IF(AND(E117&gt;=C117,E117&lt;=D117), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="n">
+        <v>150</v>
+      </c>
+      <c r="C118" t="n">
+        <v>149.55</v>
+      </c>
+      <c r="D118" t="n">
+        <v>150.45</v>
+      </c>
+      <c r="E118" t="n">
+        <v>150</v>
+      </c>
+      <c r="F118">
+        <f>IF(AND(E118&gt;=C118,E118&lt;=D118), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="n">
+        <v>200</v>
+      </c>
+      <c r="C119" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="D119" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="E119" t="n">
+        <v>200</v>
+      </c>
+      <c r="F119">
+        <f>IF(AND(E119&gt;=C119,E119&lt;=D119), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="n">
+        <v>250</v>
+      </c>
+      <c r="C120" t="n">
+        <v>249.25</v>
+      </c>
+      <c r="D120" t="n">
+        <v>250.75</v>
+      </c>
+      <c r="E120" t="n">
+        <v>250</v>
+      </c>
+      <c r="F120">
+        <f>IF(AND(E120&gt;=C120,E120&lt;=D120), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="B121" t="n">
+        <v>300</v>
+      </c>
+      <c r="C121" t="n">
+        <v>299</v>
+      </c>
+      <c r="D121" t="n">
+        <v>301</v>
+      </c>
+      <c r="E121" t="n">
+        <v>301</v>
+      </c>
+      <c r="F121">
+        <f>IF(AND(E121&gt;=C121,E121&lt;=D121), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>VH3</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>50</v>
+      </c>
+      <c r="C122" t="n">
+        <v>49.85</v>
+      </c>
+      <c r="D122" t="n">
+        <v>50.15</v>
+      </c>
+      <c r="E122" t="n">
+        <v>50</v>
+      </c>
+      <c r="F122">
+        <f>IF(AND(E122&gt;=C122,E122&lt;=D122), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" t="n">
+        <v>100</v>
+      </c>
+      <c r="C123" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D123" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>100</v>
+      </c>
+      <c r="F123">
+        <f>IF(AND(E123&gt;=C123,E123&lt;=D123), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124">
+      <c r="B124" t="n">
+        <v>150</v>
+      </c>
+      <c r="C124" t="n">
+        <v>149.55</v>
+      </c>
+      <c r="D124" t="n">
+        <v>150.45</v>
+      </c>
+      <c r="E124" t="n">
+        <v>150</v>
+      </c>
+      <c r="F124">
+        <f>IF(AND(E124&gt;=C124,E124&lt;=D124), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="n">
+        <v>200</v>
+      </c>
+      <c r="C125" t="n">
+        <v>199.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="E125" t="n">
+        <v>200</v>
+      </c>
+      <c r="F125">
+        <f>IF(AND(E125&gt;=C125,E125&lt;=D125), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126">
+      <c r="B126" t="n">
+        <v>250</v>
+      </c>
+      <c r="C126" t="n">
+        <v>249.25</v>
+      </c>
+      <c r="D126" t="n">
+        <v>250.75</v>
+      </c>
+      <c r="E126" t="n">
+        <v>250</v>
+      </c>
+      <c r="F126">
+        <f>IF(AND(E126&gt;=C126,E126&lt;=D126), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127" t="n">
+        <v>300</v>
+      </c>
+      <c r="C127" t="n">
+        <v>299</v>
+      </c>
+      <c r="D127" t="n">
+        <v>301</v>
+      </c>
+      <c r="E127" t="n">
+        <v>301</v>
+      </c>
+      <c r="F127">
+        <f>IF(AND(E127&gt;=C127,E127&lt;=D127), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>IH1</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.99952531</v>
+      </c>
+      <c r="F128">
+        <f>IF(AND(E128&gt;=C128,E128&lt;=D128), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.994</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.006</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.99924719</v>
+      </c>
+      <c r="F129">
+        <f>IF(AND(E129&gt;=C129,E129&lt;=D129), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130" t="n">
+        <v>3</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.9996326</v>
+      </c>
+      <c r="F130">
+        <f>IF(AND(E130&gt;=C130,E130&lt;=D130), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="n">
+        <v>4</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3.988</v>
+      </c>
+      <c r="D131" t="n">
+        <v>4.012</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.99974108</v>
+      </c>
+      <c r="F131">
+        <f>IF(AND(E131&gt;=C131,E131&lt;=D131), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132" t="n">
+        <v>5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.985</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5.015</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5.00013781</v>
+      </c>
+      <c r="F132">
+        <f>IF(AND(E132&gt;=C132,E132&lt;=D132), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133" t="n">
+        <v>6</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5.982</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6.018</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6.00014973</v>
+      </c>
+      <c r="F133">
+        <f>IF(AND(E133&gt;=C133,E133&lt;=D133), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>IH2</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.9997226</v>
+      </c>
+      <c r="F134">
+        <f>IF(AND(E134&gt;=C134,E134&lt;=D134), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" t="n">
+        <v>2</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.994</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.006</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.9996196</v>
+      </c>
+      <c r="F135">
+        <f>IF(AND(E135&gt;=C135,E135&lt;=D135), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" t="n">
+        <v>3</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.00004983</v>
+      </c>
+      <c r="F136">
+        <f>IF(AND(E136&gt;=C136,E136&lt;=D136), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="n">
+        <v>4</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3.988</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.012</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.0004735</v>
+      </c>
+      <c r="F137">
+        <f>IF(AND(E137&gt;=C137,E137&lt;=D137), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" t="n">
+        <v>5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.985</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5.015</v>
+      </c>
+      <c r="E138" t="n">
+        <v>5.00082779</v>
+      </c>
+      <c r="F138">
+        <f>IF(AND(E138&gt;=C138,E138&lt;=D138), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" t="n">
+        <v>6</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.982</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6.018</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.00077391</v>
+      </c>
+      <c r="F139">
+        <f>IF(AND(E139&gt;=C139,E139&lt;=D139), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>IH3</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.997</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.99990565</v>
+      </c>
+      <c r="F140">
+        <f>IF(AND(E140&gt;=C140,E140&lt;=D140), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" t="n">
+        <v>2</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.994</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.006</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.99978471</v>
+      </c>
+      <c r="F141">
+        <f>IF(AND(E141&gt;=C141,E141&lt;=D141), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" t="n">
+        <v>3</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3.009</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.00055504</v>
+      </c>
+      <c r="F142">
+        <f>IF(AND(E142&gt;=C142,E142&lt;=D142), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="n">
+        <v>4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>3.988</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4.012</v>
+      </c>
+      <c r="E143" t="n">
+        <v>4.00096369</v>
+      </c>
+      <c r="F143">
+        <f>IF(AND(E143&gt;=C143,E143&lt;=D143), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" t="n">
+        <v>5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>4.985</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5.015</v>
+      </c>
+      <c r="E144" t="n">
+        <v>5.00128889</v>
+      </c>
+      <c r="F144">
+        <f>IF(AND(E144&gt;=C144,E144&lt;=D144), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145" t="n">
+        <v>6</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.982</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6.018</v>
+      </c>
+      <c r="E145" t="n">
+        <v>6.00170803</v>
+      </c>
+      <c r="F145">
+        <f>IF(AND(E145&gt;=C145,E145&lt;=D145), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Phase(VH1)</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>60</v>
+      </c>
+      <c r="C146" t="n">
+        <v>59.75</v>
+      </c>
+      <c r="D146" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="E146" t="n">
+        <v>60.26304637721221</v>
+      </c>
+      <c r="F146">
+        <f>IF(AND(E146&gt;=C146,E146&lt;=D146), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147" t="n">
+        <v>120</v>
+      </c>
+      <c r="C147" t="n">
+        <v>119.75</v>
+      </c>
+      <c r="D147" t="n">
+        <v>120.25</v>
+      </c>
+      <c r="E147" t="n">
+        <v>120.2972119614733</v>
+      </c>
+      <c r="F147">
+        <f>IF(AND(E147&gt;=C147,E147&lt;=D147), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148" t="n">
+        <v>180</v>
+      </c>
+      <c r="C148" t="n">
+        <v>179.75</v>
+      </c>
+      <c r="D148" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="E148" t="n">
+        <v>179.7593575491723</v>
+      </c>
+      <c r="F148">
+        <f>IF(AND(E148&gt;=C148,E148&lt;=D148), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Phase(VH2)</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>60</v>
+      </c>
+      <c r="C149" t="n">
+        <v>59.75</v>
+      </c>
+      <c r="D149" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="E149" t="n">
+        <v>60.23295852263566</v>
+      </c>
+      <c r="F149">
+        <f>IF(AND(E149&gt;=C149,E149&lt;=D149), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150" t="n">
+        <v>120</v>
+      </c>
+      <c r="C150" t="n">
+        <v>119.75</v>
+      </c>
+      <c r="D150" t="n">
+        <v>120.25</v>
+      </c>
+      <c r="E150" t="n">
+        <v>120.2331134184667</v>
+      </c>
+      <c r="F150">
+        <f>IF(AND(E150&gt;=C150,E150&lt;=D150), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151" t="n">
+        <v>180</v>
+      </c>
+      <c r="C151" t="n">
+        <v>179.75</v>
+      </c>
+      <c r="D151" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="E151" t="n">
+        <v>179.768394454297</v>
+      </c>
+      <c r="F151">
+        <f>IF(AND(E151&gt;=C151,E151&lt;=D151), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Phase(VH3)</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>60</v>
+      </c>
+      <c r="C152" t="n">
+        <v>59.75</v>
+      </c>
+      <c r="D152" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="E152" t="n">
+        <v>60.21943581112865</v>
+      </c>
+      <c r="F152">
+        <f>IF(AND(E152&gt;=C152,E152&lt;=D152), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153" t="n">
+        <v>120</v>
+      </c>
+      <c r="C153" t="n">
+        <v>119.75</v>
+      </c>
+      <c r="D153" t="n">
+        <v>120.25</v>
+      </c>
+      <c r="E153" t="n">
+        <v>120.2084549933066</v>
+      </c>
+      <c r="F153">
+        <f>IF(AND(E153&gt;=C153,E153&lt;=D153), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154" t="n">
+        <v>180</v>
+      </c>
+      <c r="C154" t="n">
+        <v>179.75</v>
+      </c>
+      <c r="D154" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="E154" t="n">
+        <v>179.8082515568856</v>
+      </c>
+      <c r="F154">
+        <f>IF(AND(E154&gt;=C154,E154&lt;=D154), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Phase(IH1)</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>60</v>
+      </c>
+      <c r="C155" t="n">
+        <v>59.75</v>
+      </c>
+      <c r="D155" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="E155" t="n">
+        <v>60.2292403880278</v>
+      </c>
+      <c r="F155">
+        <f>IF(AND(E155&gt;=C155,E155&lt;=D155), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156" t="n">
+        <v>120</v>
+      </c>
+      <c r="C156" t="n">
+        <v>119.75</v>
+      </c>
+      <c r="D156" t="n">
+        <v>120.25</v>
+      </c>
+      <c r="E156" t="n">
+        <v>120.2336267040371</v>
+      </c>
+      <c r="F156">
+        <f>IF(AND(E156&gt;=C156,E156&lt;=D156), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157" t="n">
+        <v>180</v>
+      </c>
+      <c r="C157" t="n">
+        <v>179.75</v>
+      </c>
+      <c r="D157" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="E157" t="n">
+        <v>179.7770611051297</v>
+      </c>
+      <c r="F157">
+        <f>IF(AND(E157&gt;=C157,E157&lt;=D157), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Phase(IH2)</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>60</v>
+      </c>
+      <c r="C158" t="n">
+        <v>59.75</v>
+      </c>
+      <c r="D158" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="E158" t="n">
+        <v>59.80549734096019</v>
+      </c>
+      <c r="F158">
+        <f>IF(AND(E158&gt;=C158,E158&lt;=D158), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159" t="n">
+        <v>120</v>
+      </c>
+      <c r="C159" t="n">
+        <v>119.75</v>
+      </c>
+      <c r="D159" t="n">
+        <v>120.25</v>
+      </c>
+      <c r="E159" t="n">
+        <v>119.7908741234901</v>
+      </c>
+      <c r="F159">
+        <f>IF(AND(E159&gt;=C159,E159&lt;=D159), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" t="n">
+        <v>180</v>
+      </c>
+      <c r="C160" t="n">
+        <v>179.75</v>
+      </c>
+      <c r="D160" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="E160" t="n">
+        <v>179.8241476184619</v>
+      </c>
+      <c r="F160">
+        <f>IF(AND(E160&gt;=C160,E160&lt;=D160), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Phase(IH3)</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>60</v>
+      </c>
+      <c r="C161" t="n">
+        <v>59.75</v>
+      </c>
+      <c r="D161" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="E161" t="n">
+        <v>59.78603605450781</v>
+      </c>
+      <c r="F161">
+        <f>IF(AND(E161&gt;=C161,E161&lt;=D161), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162" t="n">
+        <v>120</v>
+      </c>
+      <c r="C162" t="n">
+        <v>119.75</v>
+      </c>
+      <c r="D162" t="n">
+        <v>120.25</v>
+      </c>
+      <c r="E162" t="n">
+        <v>119.7979768913345</v>
+      </c>
+      <c r="F162">
+        <f>IF(AND(E162&gt;=C162,E162&lt;=D162), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163" t="n">
+        <v>180</v>
+      </c>
+      <c r="C163" t="n">
+        <v>179.75</v>
+      </c>
+      <c r="D163" t="n">
+        <v>180.25</v>
+      </c>
+      <c r="E163" t="n">
+        <v>179.8031824372122</v>
+      </c>
+      <c r="F163">
+        <f>IF(AND(E163&gt;=C163,E163&lt;=D163), "PASS", "FAIL")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F109">
-    <cfRule type="containsText" priority="23" operator="containsText" dxfId="1" text="FAIL">
+  <conditionalFormatting sqref="F2:F118">
+    <cfRule type="containsText" priority="31" operator="containsText" dxfId="1" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="24" operator="containsText" dxfId="0" text="PASS">
+    <cfRule type="containsText" priority="32" operator="containsText" dxfId="0" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",F2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F119:F127">
+    <cfRule type="containsText" priority="7" operator="containsText" dxfId="1" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",F119)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="8" operator="containsText" dxfId="0" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",F119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F128:F145">
+    <cfRule type="containsText" priority="5" operator="containsText" dxfId="1" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",F128)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="6" operator="containsText" dxfId="0" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",F128)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F146:F154">
+    <cfRule type="containsText" priority="3" operator="containsText" dxfId="1" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",F146)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="4" operator="containsText" dxfId="0" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",F146)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F155:F163">
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="1" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",F155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="0" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",F155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -518,7 +518,7 @@
         <v>25.075</v>
       </c>
       <c r="E2" t="n">
-        <v>24.9979763</v>
+        <v>24.99662209</v>
       </c>
       <c r="F2">
         <f>IF(AND(E2&gt;=C2,E2&lt;=D2), "PASS", "FAIL")</f>
@@ -536,7 +536,7 @@
         <v>50.15</v>
       </c>
       <c r="E3" t="n">
-        <v>49.99749374</v>
+        <v>49.99562454</v>
       </c>
       <c r="F3">
         <f>IF(AND(E3&gt;=C3,E3&lt;=D3), "PASS", "FAIL")</f>
@@ -554,7 +554,7 @@
         <v>75.22499999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>74.99463654</v>
+        <v>74.9914093</v>
       </c>
       <c r="F4">
         <f>IF(AND(E4&gt;=C4,E4&lt;=D4), "PASS", "FAIL")</f>
@@ -572,7 +572,7 @@
         <v>100.3</v>
       </c>
       <c r="E5" t="n">
-        <v>99.99442291</v>
+        <v>99.99011993000001</v>
       </c>
       <c r="F5">
         <f>IF(AND(E5&gt;=C5,E5&lt;=D5), "PASS", "FAIL")</f>
@@ -590,7 +590,7 @@
         <v>125.375</v>
       </c>
       <c r="E6" t="n">
-        <v>124.99074554</v>
+        <v>124.9864121</v>
       </c>
       <c r="F6">
         <f>IF(AND(E6&gt;=C6,E6&lt;=D6), "PASS", "FAIL")</f>
@@ -608,7 +608,7 @@
         <v>150.45</v>
       </c>
       <c r="E7" t="n">
-        <v>149.98817444</v>
+        <v>149.982544</v>
       </c>
       <c r="F7">
         <f>IF(AND(E7&gt;=C7,E7&lt;=D7), "PASS", "FAIL")</f>
@@ -631,7 +631,7 @@
         <v>25.075</v>
       </c>
       <c r="E8" t="n">
-        <v>25.01117325</v>
+        <v>25.00961876</v>
       </c>
       <c r="F8">
         <f>IF(AND(E8&gt;=C8,E8&lt;=D8), "PASS", "FAIL")</f>
@@ -649,7 +649,7 @@
         <v>50.15</v>
       </c>
       <c r="E9" t="n">
-        <v>50.02285767</v>
+        <v>50.02079773</v>
       </c>
       <c r="F9">
         <f>IF(AND(E9&gt;=C9,E9&lt;=D9), "PASS", "FAIL")</f>
@@ -667,7 +667,7 @@
         <v>75.22499999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>75.03379821999999</v>
+        <v>75.03050995</v>
       </c>
       <c r="F10">
         <f>IF(AND(E10&gt;=C10,E10&lt;=D10), "PASS", "FAIL")</f>
@@ -685,7 +685,7 @@
         <v>100.3</v>
       </c>
       <c r="E11" t="n">
-        <v>100.04698944</v>
+        <v>100.0434799</v>
       </c>
       <c r="F11">
         <f>IF(AND(E11&gt;=C11,E11&lt;=D11), "PASS", "FAIL")</f>
@@ -703,7 +703,7 @@
         <v>125.375</v>
       </c>
       <c r="E12" t="n">
-        <v>125.06109619</v>
+        <v>125.056488</v>
       </c>
       <c r="F12">
         <f>IF(AND(E12&gt;=C12,E12&lt;=D12), "PASS", "FAIL")</f>
@@ -721,7 +721,7 @@
         <v>150.45</v>
       </c>
       <c r="E13" t="n">
-        <v>150.07202148</v>
+        <v>150.0663605</v>
       </c>
       <c r="F13">
         <f>IF(AND(E13&gt;=C13,E13&lt;=D13), "PASS", "FAIL")</f>
@@ -744,7 +744,7 @@
         <v>25.075</v>
       </c>
       <c r="E14" t="n">
-        <v>24.99144936</v>
+        <v>24.98796082</v>
       </c>
       <c r="F14">
         <f>IF(AND(E14&gt;=C14,E14&lt;=D14), "PASS", "FAIL")</f>
@@ -762,7 +762,7 @@
         <v>50.15</v>
       </c>
       <c r="E15" t="n">
-        <v>49.98563385</v>
+        <v>49.98028183</v>
       </c>
       <c r="F15">
         <f>IF(AND(E15&gt;=C15,E15&lt;=D15), "PASS", "FAIL")</f>
@@ -780,7 +780,7 @@
         <v>75.22499999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>74.97724915000001</v>
+        <v>74.96884918000001</v>
       </c>
       <c r="F16">
         <f>IF(AND(E16&gt;=C16,E16&lt;=D16), "PASS", "FAIL")</f>
@@ -798,7 +798,7 @@
         <v>100.3</v>
       </c>
       <c r="E17" t="n">
-        <v>99.97194672000001</v>
+        <v>99.96131896999999</v>
       </c>
       <c r="F17">
         <f>IF(AND(E17&gt;=C17,E17&lt;=D17), "PASS", "FAIL")</f>
@@ -816,7 +816,7 @@
         <v>125.375</v>
       </c>
       <c r="E18" t="n">
-        <v>124.96549988</v>
+        <v>124.9533615</v>
       </c>
       <c r="F18">
         <f>IF(AND(E18&gt;=C18,E18&lt;=D18), "PASS", "FAIL")</f>
@@ -834,7 +834,7 @@
         <v>150.45</v>
       </c>
       <c r="E19" t="n">
-        <v>149.95675659</v>
+        <v>149.9424744</v>
       </c>
       <c r="F19">
         <f>IF(AND(E19&gt;=C19,E19&lt;=D19), "PASS", "FAIL")</f>
@@ -857,7 +857,7 @@
         <v>25.075</v>
       </c>
       <c r="E20" t="n">
-        <v>24.99479294</v>
+        <v>24.99450684</v>
       </c>
       <c r="F20">
         <f>IF(AND(E20&gt;=C20,E20&lt;=D20), "PASS", "FAIL")</f>
@@ -875,7 +875,7 @@
         <v>50.15</v>
       </c>
       <c r="E21" t="n">
-        <v>49.98953247</v>
+        <v>49.98841095</v>
       </c>
       <c r="F21">
         <f>IF(AND(E21&gt;=C21,E21&lt;=D21), "PASS", "FAIL")</f>
@@ -893,7 +893,7 @@
         <v>75.22499999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>74.98566436999999</v>
+        <v>74.98484039</v>
       </c>
       <c r="F22">
         <f>IF(AND(E22&gt;=C22,E22&lt;=D22), "PASS", "FAIL")</f>
@@ -911,7 +911,7 @@
         <v>100.3</v>
       </c>
       <c r="E23" t="n">
-        <v>99.98137665</v>
+        <v>99.98279572</v>
       </c>
       <c r="F23">
         <f>IF(AND(E23&gt;=C23,E23&lt;=D23), "PASS", "FAIL")</f>
@@ -929,7 +929,7 @@
         <v>125.375</v>
       </c>
       <c r="E24" t="n">
-        <v>124.98264313</v>
+        <v>124.9859619</v>
       </c>
       <c r="F24">
         <f>IF(AND(E24&gt;=C24,E24&lt;=D24), "PASS", "FAIL")</f>
@@ -947,7 +947,7 @@
         <v>150.45</v>
       </c>
       <c r="E25" t="n">
-        <v>149.98132324</v>
+        <v>149.9891205</v>
       </c>
       <c r="F25">
         <f>IF(AND(E25&gt;=C25,E25&lt;=D25), "PASS", "FAIL")</f>
@@ -970,7 +970,7 @@
         <v>25.075</v>
       </c>
       <c r="E26" t="n">
-        <v>25.00974274</v>
+        <v>25.0093689</v>
       </c>
       <c r="F26">
         <f>IF(AND(E26&gt;=C26,E26&lt;=D26), "PASS", "FAIL")</f>
@@ -988,7 +988,7 @@
         <v>50.15</v>
       </c>
       <c r="E27" t="n">
-        <v>50.01837158</v>
+        <v>50.01700211</v>
       </c>
       <c r="F27">
         <f>IF(AND(E27&gt;=C27,E27&lt;=D27), "PASS", "FAIL")</f>
@@ -1006,7 +1006,7 @@
         <v>75.22499999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>75.02858734</v>
+        <v>75.02690887</v>
       </c>
       <c r="F28">
         <f>IF(AND(E28&gt;=C28,E28&lt;=D28), "PASS", "FAIL")</f>
@@ -1024,7 +1024,7 @@
         <v>100.3</v>
       </c>
       <c r="E29" t="n">
-        <v>100.03844452</v>
+        <v>100.0363998</v>
       </c>
       <c r="F29">
         <f>IF(AND(E29&gt;=C29,E29&lt;=D29), "PASS", "FAIL")</f>
@@ -1042,7 +1042,7 @@
         <v>125.375</v>
       </c>
       <c r="E30" t="n">
-        <v>125.05028534</v>
+        <v>125.0477219</v>
       </c>
       <c r="F30">
         <f>IF(AND(E30&gt;=C30,E30&lt;=D30), "PASS", "FAIL")</f>
@@ -1060,7 +1060,7 @@
         <v>150.45</v>
       </c>
       <c r="E31" t="n">
-        <v>150.06365967</v>
+        <v>150.0606384</v>
       </c>
       <c r="F31">
         <f>IF(AND(E31&gt;=C31,E31&lt;=D31), "PASS", "FAIL")</f>
@@ -1083,7 +1083,7 @@
         <v>25.075</v>
       </c>
       <c r="E32" t="n">
-        <v>25.00335503</v>
+        <v>25.00200844</v>
       </c>
       <c r="F32">
         <f>IF(AND(E32&gt;=C32,E32&lt;=D32), "PASS", "FAIL")</f>
@@ -1101,7 +1101,7 @@
         <v>50.15</v>
       </c>
       <c r="E33" t="n">
-        <v>50.00356293</v>
+        <v>50.00071335</v>
       </c>
       <c r="F33">
         <f>IF(AND(E33&gt;=C33,E33&lt;=D33), "PASS", "FAIL")</f>
@@ -1119,7 +1119,7 @@
         <v>75.22499999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>75.00463867000001</v>
+        <v>75.00113678</v>
       </c>
       <c r="F34">
         <f>IF(AND(E34&gt;=C34,E34&lt;=D34), "PASS", "FAIL")</f>
@@ -1137,7 +1137,7 @@
         <v>100.3</v>
       </c>
       <c r="E35" t="n">
-        <v>100.01135254</v>
+        <v>100.0064316</v>
       </c>
       <c r="F35">
         <f>IF(AND(E35&gt;=C35,E35&lt;=D35), "PASS", "FAIL")</f>
@@ -1155,7 +1155,7 @@
         <v>125.375</v>
       </c>
       <c r="E36" t="n">
-        <v>125.01959991</v>
+        <v>125.0137405</v>
       </c>
       <c r="F36">
         <f>IF(AND(E36&gt;=C36,E36&lt;=D36), "PASS", "FAIL")</f>
@@ -1173,7 +1173,7 @@
         <v>150.45</v>
       </c>
       <c r="E37" t="n">
-        <v>150.02742004</v>
+        <v>150.0201721</v>
       </c>
       <c r="F37">
         <f>IF(AND(E37&gt;=C37,E37&lt;=D37), "PASS", "FAIL")</f>
@@ -1196,7 +1196,7 @@
         <v>1.003</v>
       </c>
       <c r="E38" t="n">
-        <v>0.99952531</v>
+        <v>0.99949706</v>
       </c>
       <c r="F38">
         <f>IF(AND(E38&gt;=C38,E38&lt;=D38), "PASS", "FAIL")</f>
@@ -1214,7 +1214,7 @@
         <v>2.006</v>
       </c>
       <c r="E39" t="n">
-        <v>1.99924719</v>
+        <v>1.99919522</v>
       </c>
       <c r="F39">
         <f>IF(AND(E39&gt;=C39,E39&lt;=D39), "PASS", "FAIL")</f>
@@ -1232,7 +1232,7 @@
         <v>3.009</v>
       </c>
       <c r="E40" t="n">
-        <v>2.9996326</v>
+        <v>2.99956894</v>
       </c>
       <c r="F40">
         <f>IF(AND(E40&gt;=C40,E40&lt;=D40), "PASS", "FAIL")</f>
@@ -1250,7 +1250,7 @@
         <v>4.012</v>
       </c>
       <c r="E41" t="n">
-        <v>3.99974108</v>
+        <v>3.99969864</v>
       </c>
       <c r="F41">
         <f>IF(AND(E41&gt;=C41,E41&lt;=D41), "PASS", "FAIL")</f>
@@ -1268,7 +1268,7 @@
         <v>5.015</v>
       </c>
       <c r="E42" t="n">
-        <v>5.00013781</v>
+        <v>5.00007105</v>
       </c>
       <c r="F42">
         <f>IF(AND(E42&gt;=C42,E42&lt;=D42), "PASS", "FAIL")</f>
@@ -1286,7 +1286,7 @@
         <v>6.018</v>
       </c>
       <c r="E43" t="n">
-        <v>6.00014973</v>
+        <v>6.00007534</v>
       </c>
       <c r="F43">
         <f>IF(AND(E43&gt;=C43,E43&lt;=D43), "PASS", "FAIL")</f>
@@ -1309,7 +1309,7 @@
         <v>1.003</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9997226</v>
+        <v>0.99971604</v>
       </c>
       <c r="F44">
         <f>IF(AND(E44&gt;=C44,E44&lt;=D44), "PASS", "FAIL")</f>
@@ -1327,7 +1327,7 @@
         <v>2.006</v>
       </c>
       <c r="E45" t="n">
-        <v>1.9996196</v>
+        <v>1.99959993</v>
       </c>
       <c r="F45">
         <f>IF(AND(E45&gt;=C45,E45&lt;=D45), "PASS", "FAIL")</f>
@@ -1345,7 +1345,7 @@
         <v>3.009</v>
       </c>
       <c r="E46" t="n">
-        <v>3.00004983</v>
+        <v>3.00005031</v>
       </c>
       <c r="F46">
         <f>IF(AND(E46&gt;=C46,E46&lt;=D46), "PASS", "FAIL")</f>
@@ -1363,7 +1363,7 @@
         <v>4.012</v>
       </c>
       <c r="E47" t="n">
-        <v>4.0004735</v>
+        <v>4.00044537</v>
       </c>
       <c r="F47">
         <f>IF(AND(E47&gt;=C47,E47&lt;=D47), "PASS", "FAIL")</f>
@@ -1381,7 +1381,7 @@
         <v>5.015</v>
       </c>
       <c r="E48" t="n">
-        <v>5.00082779</v>
+        <v>5.00080204</v>
       </c>
       <c r="F48">
         <f>IF(AND(E48&gt;=C48,E48&lt;=D48), "PASS", "FAIL")</f>
@@ -1399,7 +1399,7 @@
         <v>6.018</v>
       </c>
       <c r="E49" t="n">
-        <v>6.00077391</v>
+        <v>6.00075912</v>
       </c>
       <c r="F49">
         <f>IF(AND(E49&gt;=C49,E49&lt;=D49), "PASS", "FAIL")</f>
@@ -1422,7 +1422,7 @@
         <v>1.003</v>
       </c>
       <c r="E50" t="n">
-        <v>0.99990565</v>
+        <v>0.99988896</v>
       </c>
       <c r="F50">
         <f>IF(AND(E50&gt;=C50,E50&lt;=D50), "PASS", "FAIL")</f>
@@ -1440,7 +1440,7 @@
         <v>2.006</v>
       </c>
       <c r="E51" t="n">
-        <v>1.99978471</v>
+        <v>1.99977839</v>
       </c>
       <c r="F51">
         <f>IF(AND(E51&gt;=C51,E51&lt;=D51), "PASS", "FAIL")</f>
@@ -1458,7 +1458,7 @@
         <v>3.009</v>
       </c>
       <c r="E52" t="n">
-        <v>3.00055504</v>
+        <v>3.00057006</v>
       </c>
       <c r="F52">
         <f>IF(AND(E52&gt;=C52,E52&lt;=D52), "PASS", "FAIL")</f>
@@ -1476,7 +1476,7 @@
         <v>4.012</v>
       </c>
       <c r="E53" t="n">
-        <v>4.00096369</v>
+        <v>4.00098228</v>
       </c>
       <c r="F53">
         <f>IF(AND(E53&gt;=C53,E53&lt;=D53), "PASS", "FAIL")</f>
@@ -1494,7 +1494,7 @@
         <v>5.015</v>
       </c>
       <c r="E54" t="n">
-        <v>5.00128889</v>
+        <v>5.00133371</v>
       </c>
       <c r="F54">
         <f>IF(AND(E54&gt;=C54,E54&lt;=D54), "PASS", "FAIL")</f>
@@ -1512,7 +1512,7 @@
         <v>6.018</v>
       </c>
       <c r="E55" t="n">
-        <v>6.00170803</v>
+        <v>6.00168037</v>
       </c>
       <c r="F55">
         <f>IF(AND(E55&gt;=C55,E55&lt;=D55), "PASS", "FAIL")</f>
@@ -1535,7 +1535,7 @@
         <v>1.003</v>
       </c>
       <c r="E56" t="n">
-        <v>0.99976265</v>
+        <v>0.99975133</v>
       </c>
       <c r="F56">
         <f>IF(AND(E56&gt;=C56,E56&lt;=D56), "PASS", "FAIL")</f>
@@ -1553,7 +1553,7 @@
         <v>2.006</v>
       </c>
       <c r="E57" t="n">
-        <v>1.99943817</v>
+        <v>1.99942291</v>
       </c>
       <c r="F57">
         <f>IF(AND(E57&gt;=C57,E57&lt;=D57), "PASS", "FAIL")</f>
@@ -1571,7 +1571,7 @@
         <v>3.009</v>
       </c>
       <c r="E58" t="n">
-        <v>3.00008392</v>
+        <v>3.0005126</v>
       </c>
       <c r="F58">
         <f>IF(AND(E58&gt;=C58,E58&lt;=D58), "PASS", "FAIL")</f>
@@ -1589,7 +1589,7 @@
         <v>4.012</v>
       </c>
       <c r="E59" t="n">
-        <v>4.00003719</v>
+        <v>4.0005579</v>
       </c>
       <c r="F59">
         <f>IF(AND(E59&gt;=C59,E59&lt;=D59), "PASS", "FAIL")</f>
@@ -1607,7 +1607,7 @@
         <v>5.015</v>
       </c>
       <c r="E60" t="n">
-        <v>5.00030041</v>
+        <v>5.00091982</v>
       </c>
       <c r="F60">
         <f>IF(AND(E60&gt;=C60,E60&lt;=D60), "PASS", "FAIL")</f>
@@ -1625,7 +1625,7 @@
         <v>6.018</v>
       </c>
       <c r="E61" t="n">
-        <v>6.00055408</v>
+        <v>6.00130987</v>
       </c>
       <c r="F61">
         <f>IF(AND(E61&gt;=C61,E61&lt;=D61), "PASS", "FAIL")</f>
@@ -1648,7 +1648,7 @@
         <v>1.003</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9998171300000001</v>
+        <v>0.99984324</v>
       </c>
       <c r="F62">
         <f>IF(AND(E62&gt;=C62,E62&lt;=D62), "PASS", "FAIL")</f>
@@ -1666,7 +1666,7 @@
         <v>2.006</v>
       </c>
       <c r="E63" t="n">
-        <v>1.99971271</v>
+        <v>1.99966681</v>
       </c>
       <c r="F63">
         <f>IF(AND(E63&gt;=C63,E63&lt;=D63), "PASS", "FAIL")</f>
@@ -1684,7 +1684,7 @@
         <v>3.009</v>
       </c>
       <c r="E64" t="n">
-        <v>3.00032711</v>
+        <v>3.00565195</v>
       </c>
       <c r="F64">
         <f>IF(AND(E64&gt;=C64,E64&lt;=D64), "PASS", "FAIL")</f>
@@ -1702,7 +1702,7 @@
         <v>4.012</v>
       </c>
       <c r="E65" t="n">
-        <v>4.00042915</v>
+        <v>4.00032616</v>
       </c>
       <c r="F65">
         <f>IF(AND(E65&gt;=C65,E65&lt;=D65), "PASS", "FAIL")</f>
@@ -1720,7 +1720,7 @@
         <v>5.015</v>
       </c>
       <c r="E66" t="n">
-        <v>5.00077248</v>
+        <v>5.00963974</v>
       </c>
       <c r="F66">
         <f>IF(AND(E66&gt;=C66,E66&lt;=D66), "PASS", "FAIL")</f>
@@ -1738,7 +1738,7 @@
         <v>6.018</v>
       </c>
       <c r="E67" t="n">
-        <v>6.00110197</v>
+        <v>6.00088596</v>
       </c>
       <c r="F67">
         <f>IF(AND(E67&gt;=C67,E67&lt;=D67), "PASS", "FAIL")</f>
@@ -1761,7 +1761,7 @@
         <v>1.003</v>
       </c>
       <c r="E68" t="n">
-        <v>0.99996799</v>
+        <v>0.99998814</v>
       </c>
       <c r="F68">
         <f>IF(AND(E68&gt;=C68,E68&lt;=D68), "PASS", "FAIL")</f>
@@ -1779,7 +1779,7 @@
         <v>2.006</v>
       </c>
       <c r="E69" t="n">
-        <v>1.99983764</v>
+        <v>1.99980593</v>
       </c>
       <c r="F69">
         <f>IF(AND(E69&gt;=C69,E69&lt;=D69), "PASS", "FAIL")</f>
@@ -1797,7 +1797,7 @@
         <v>3.009</v>
       </c>
       <c r="E70" t="n">
-        <v>3.0008235</v>
+        <v>2.9936657</v>
       </c>
       <c r="F70">
         <f>IF(AND(E70&gt;=C70,E70&lt;=D70), "PASS", "FAIL")</f>
@@ -1815,7 +1815,7 @@
         <v>4.012</v>
       </c>
       <c r="E71" t="n">
-        <v>4.0011797</v>
+        <v>4.00109005</v>
       </c>
       <c r="F71">
         <f>IF(AND(E71&gt;=C71,E71&lt;=D71), "PASS", "FAIL")</f>
@@ -1833,7 +1833,7 @@
         <v>5.015</v>
       </c>
       <c r="E72" t="n">
-        <v>5.0014143</v>
+        <v>4.98943138</v>
       </c>
       <c r="F72">
         <f>IF(AND(E72&gt;=C72,E72&lt;=D72), "PASS", "FAIL")</f>
@@ -1851,7 +1851,7 @@
         <v>6.018</v>
       </c>
       <c r="E73" t="n">
-        <v>6.00187206</v>
+        <v>6.00169897</v>
       </c>
       <c r="F73">
         <f>IF(AND(E73&gt;=C73,E73&lt;=D73), "PASS", "FAIL")</f>
@@ -1874,7 +1874,7 @@
         <v>60.25</v>
       </c>
       <c r="E74" t="n">
-        <v>60.26304637721221</v>
+        <v>60.25075124970225</v>
       </c>
       <c r="F74">
         <f>IF(AND(E74&gt;=C74,E74&lt;=D74), "PASS", "FAIL")</f>
@@ -1892,7 +1892,7 @@
         <v>120.25</v>
       </c>
       <c r="E75" t="n">
-        <v>120.2972119614733</v>
+        <v>120.2616559008507</v>
       </c>
       <c r="F75">
         <f>IF(AND(E75&gt;=C75,E75&lt;=D75), "PASS", "FAIL")</f>
@@ -1910,7 +1910,7 @@
         <v>180.25</v>
       </c>
       <c r="E76" t="n">
-        <v>179.7593575491723</v>
+        <v>179.7316254427013</v>
       </c>
       <c r="F76">
         <f>IF(AND(E76&gt;=C76,E76&lt;=D76), "PASS", "FAIL")</f>
@@ -1933,7 +1933,7 @@
         <v>60.25</v>
       </c>
       <c r="E77" t="n">
-        <v>60.23295852263566</v>
+        <v>60.22014149812112</v>
       </c>
       <c r="F77">
         <f>IF(AND(E77&gt;=C77,E77&lt;=D77), "PASS", "FAIL")</f>
@@ -1951,7 +1951,7 @@
         <v>120.25</v>
       </c>
       <c r="E78" t="n">
-        <v>120.2331134184667</v>
+        <v>120.1983548331038</v>
       </c>
       <c r="F78">
         <f>IF(AND(E78&gt;=C78,E78&lt;=D78), "PASS", "FAIL")</f>
@@ -1969,7 +1969,7 @@
         <v>180.25</v>
       </c>
       <c r="E79" t="n">
-        <v>179.768394454297</v>
+        <v>179.7788351850993</v>
       </c>
       <c r="F79">
         <f>IF(AND(E79&gt;=C79,E79&lt;=D79), "PASS", "FAIL")</f>
@@ -1992,7 +1992,7 @@
         <v>60.25</v>
       </c>
       <c r="E80" t="n">
-        <v>60.21943581112865</v>
+        <v>59.81534750858757</v>
       </c>
       <c r="F80">
         <f>IF(AND(E80&gt;=C80,E80&lt;=D80), "PASS", "FAIL")</f>
@@ -2010,7 +2010,7 @@
         <v>120.25</v>
       </c>
       <c r="E81" t="n">
-        <v>120.2084549933066</v>
+        <v>119.7999035330665</v>
       </c>
       <c r="F81">
         <f>IF(AND(E81&gt;=C81,E81&lt;=D81), "PASS", "FAIL")</f>
@@ -2028,7 +2028,7 @@
         <v>180.25</v>
       </c>
       <c r="E82" t="n">
-        <v>179.8082515568856</v>
+        <v>179.7593575491723</v>
       </c>
       <c r="F82">
         <f>IF(AND(E82&gt;=C82,E82&lt;=D82), "PASS", "FAIL")</f>
@@ -2051,7 +2051,7 @@
         <v>60.25</v>
       </c>
       <c r="E83" t="n">
-        <v>60.24495290608287</v>
+        <v>60.24819463463712</v>
       </c>
       <c r="F83">
         <f>IF(AND(E83&gt;=C83,E83&lt;=D83), "PASS", "FAIL")</f>
@@ -2069,7 +2069,7 @@
         <v>120.25</v>
       </c>
       <c r="E84" t="n">
-        <v>120.2447823746622</v>
+        <v>119.7416749793385</v>
       </c>
       <c r="F84">
         <f>IF(AND(E84&gt;=C84,E84&lt;=D84), "PASS", "FAIL")</f>
@@ -2087,7 +2087,7 @@
         <v>180.25</v>
       </c>
       <c r="E85" t="n">
-        <v>179.7383141969813</v>
+        <v>179.7761793382941</v>
       </c>
       <c r="F85">
         <f>IF(AND(E85&gt;=C85,E85&lt;=D85), "PASS", "FAIL")</f>
@@ -2110,7 +2110,7 @@
         <v>60.25</v>
       </c>
       <c r="E86" t="n">
-        <v>60.20701054828241</v>
+        <v>59.78116731346624</v>
       </c>
       <c r="F86">
         <f>IF(AND(E86&gt;=C86,E86&lt;=D86), "PASS", "FAIL")</f>
@@ -2128,7 +2128,7 @@
         <v>120.25</v>
       </c>
       <c r="E87" t="n">
-        <v>120.167535693746</v>
+        <v>119.8100675455666</v>
       </c>
       <c r="F87">
         <f>IF(AND(E87&gt;=C87,E87&lt;=D87), "PASS", "FAIL")</f>
@@ -2146,7 +2146,7 @@
         <v>180.25</v>
       </c>
       <c r="E88" t="n">
-        <v>179.7505163196943</v>
+        <v>179.8357298363012</v>
       </c>
       <c r="F88">
         <f>IF(AND(E88&gt;=C88,E88&lt;=D88), "PASS", "FAIL")</f>
@@ -2169,7 +2169,7 @@
         <v>60.25</v>
       </c>
       <c r="E89" t="n">
-        <v>60.20570264038873</v>
+        <v>60.22736575690966</v>
       </c>
       <c r="F89">
         <f>IF(AND(E89&gt;=C89,E89&lt;=D89), "PASS", "FAIL")</f>
@@ -2187,7 +2187,7 @@
         <v>120.25</v>
       </c>
       <c r="E90" t="n">
-        <v>119.8126910889515</v>
+        <v>119.7710744683387</v>
       </c>
       <c r="F90">
         <f>IF(AND(E90&gt;=C90,E90&lt;=D90), "PASS", "FAIL")</f>
@@ -2205,7 +2205,7 @@
         <v>180.25</v>
       </c>
       <c r="E91" t="n">
-        <v>179.768394454297</v>
+        <v>179.8134583744895</v>
       </c>
       <c r="F91">
         <f>IF(AND(E91&gt;=C91,E91&lt;=D91), "PASS", "FAIL")</f>
@@ -2228,7 +2228,7 @@
         <v>60.25</v>
       </c>
       <c r="E92" t="n">
-        <v>59.77957794190749</v>
+        <v>59.79452046843458</v>
       </c>
       <c r="F92">
         <f>IF(AND(E92&gt;=C92,E92&lt;=D92), "PASS", "FAIL")</f>
@@ -2246,7 +2246,7 @@
         <v>120.25</v>
       </c>
       <c r="E93" t="n">
-        <v>120.2336267040371</v>
+        <v>119.78897340321</v>
       </c>
       <c r="F93">
         <f>IF(AND(E93&gt;=C93,E93&lt;=D93), "PASS", "FAIL")</f>
@@ -2264,7 +2264,7 @@
         <v>180.25</v>
       </c>
       <c r="E94" t="n">
-        <v>179.7770611051297</v>
+        <v>179.7953328224468</v>
       </c>
       <c r="F94">
         <f>IF(AND(E94&gt;=C94,E94&lt;=D94), "PASS", "FAIL")</f>
@@ -2287,7 +2287,7 @@
         <v>60.25</v>
       </c>
       <c r="E95" t="n">
-        <v>59.80549734096019</v>
+        <v>59.82225662115336</v>
       </c>
       <c r="F95">
         <f>IF(AND(E95&gt;=C95,E95&lt;=D95), "PASS", "FAIL")</f>
@@ -2305,7 +2305,7 @@
         <v>120.25</v>
       </c>
       <c r="E96" t="n">
-        <v>119.7908741234901</v>
+        <v>119.815652810751</v>
       </c>
       <c r="F96">
         <f>IF(AND(E96&gt;=C96,E96&lt;=D96), "PASS", "FAIL")</f>
@@ -2323,7 +2323,7 @@
         <v>180.25</v>
       </c>
       <c r="E97" t="n">
-        <v>179.8241476184619</v>
+        <v>179.8275405903219</v>
       </c>
       <c r="F97">
         <f>IF(AND(E97&gt;=C97,E97&lt;=D97), "PASS", "FAIL")</f>
@@ -2346,7 +2346,7 @@
         <v>60.25</v>
       </c>
       <c r="E98" t="n">
-        <v>59.78603605450781</v>
+        <v>59.81237201334631</v>
       </c>
       <c r="F98">
         <f>IF(AND(E98&gt;=C98,E98&lt;=D98), "PASS", "FAIL")</f>
@@ -2364,7 +2364,7 @@
         <v>120.25</v>
       </c>
       <c r="E99" t="n">
-        <v>119.7979768913345</v>
+        <v>119.7961981810136</v>
       </c>
       <c r="F99">
         <f>IF(AND(E99&gt;=C99,E99&lt;=D99), "PASS", "FAIL")</f>
@@ -2382,7 +2382,7 @@
         <v>180.25</v>
       </c>
       <c r="E100" t="n">
-        <v>179.8031824372122</v>
+        <v>179.8381457072127</v>
       </c>
       <c r="F100">
         <f>IF(AND(E100&gt;=C100,E100&lt;=D100), "PASS", "FAIL")</f>
@@ -2405,7 +2405,7 @@
         <v>60.25</v>
       </c>
       <c r="E101" t="n">
-        <v>60.2292403880278</v>
+        <v>60.21514877128107</v>
       </c>
       <c r="F101">
         <f>IF(AND(E101&gt;=C101,E101&lt;=D101), "PASS", "FAIL")</f>
@@ -2423,7 +2423,7 @@
         <v>120.25</v>
       </c>
       <c r="E102" t="n">
-        <v>120.2236234234485</v>
+        <v>120.2184023604794</v>
       </c>
       <c r="F102">
         <f>IF(AND(E102&gt;=C102,E102&lt;=D102), "PASS", "FAIL")</f>
@@ -2441,7 +2441,7 @@
         <v>180.25</v>
       </c>
       <c r="E103" t="n">
-        <v>179.8062079969482</v>
+        <v>179.7815233143684</v>
       </c>
       <c r="F103">
         <f>IF(AND(E103&gt;=C103,E103&lt;=D103), "PASS", "FAIL")</f>
@@ -2464,7 +2464,7 @@
         <v>60.25</v>
       </c>
       <c r="E104" t="n">
-        <v>60.26568179391305</v>
+        <v>59.73888539173723</v>
       </c>
       <c r="F104">
         <f>IF(AND(E104&gt;=C104,E104&lt;=D104), "PASS", "FAIL")</f>
@@ -2482,7 +2482,7 @@
         <v>120.25</v>
       </c>
       <c r="E105" t="n">
-        <v>120.2591099942953</v>
+        <v>120.2572792111991</v>
       </c>
       <c r="F105">
         <f>IF(AND(E105&gt;=C105,E105&lt;=D105), "PASS", "FAIL")</f>
@@ -2500,7 +2500,7 @@
         <v>180.25</v>
       </c>
       <c r="E106" t="n">
-        <v>179.7405821032733</v>
+        <v>179.7368131162448</v>
       </c>
       <c r="F106">
         <f>IF(AND(E106&gt;=C106,E106&lt;=D106), "PASS", "FAIL")</f>
@@ -2523,7 +2523,7 @@
         <v>60.25</v>
       </c>
       <c r="E107" t="n">
-        <v>60.19136140808333</v>
+        <v>60.22490888088733</v>
       </c>
       <c r="F107">
         <f>IF(AND(E107&gt;=C107,E107&lt;=D107), "PASS", "FAIL")</f>
@@ -2541,7 +2541,7 @@
         <v>120.25</v>
       </c>
       <c r="E108" t="n">
-        <v>120.1885718916497</v>
+        <v>119.7854572648691</v>
       </c>
       <c r="F108">
         <f>IF(AND(E108&gt;=C108,E108&lt;=D108), "PASS", "FAIL")</f>
@@ -2559,7 +2559,7 @@
         <v>180.25</v>
       </c>
       <c r="E109" t="n">
-        <v>179.8186336660424</v>
+        <v>179.7962974816749</v>
       </c>
       <c r="F109">
         <f>IF(AND(E109&gt;=C109,E109&lt;=D109), "PASS", "FAIL")</f>
@@ -2582,7 +2582,7 @@
         <v>50.15</v>
       </c>
       <c r="E110" t="n">
-        <v>50</v>
+        <v>49.99503326</v>
       </c>
       <c r="F110">
         <f>IF(AND(E110&gt;=C110,E110&lt;=D110), "PASS", "FAIL")</f>
@@ -2600,7 +2600,7 @@
         <v>100.3</v>
       </c>
       <c r="E111" t="n">
-        <v>100</v>
+        <v>99.98902893</v>
       </c>
       <c r="F111">
         <f>IF(AND(E111&gt;=C111,E111&lt;=D111), "PASS", "FAIL")</f>
@@ -2618,7 +2618,7 @@
         <v>150.45</v>
       </c>
       <c r="E112" t="n">
-        <v>150</v>
+        <v>149.9776764</v>
       </c>
       <c r="F112">
         <f>IF(AND(E112&gt;=C112,E112&lt;=D112), "PASS", "FAIL")</f>
@@ -2636,7 +2636,7 @@
         <v>200.6</v>
       </c>
       <c r="E113" t="n">
-        <v>200</v>
+        <v>199.9758148</v>
       </c>
       <c r="F113">
         <f>IF(AND(E113&gt;=C113,E113&lt;=D113), "PASS", "FAIL")</f>
@@ -2654,7 +2654,7 @@
         <v>250.75</v>
       </c>
       <c r="E114" t="n">
-        <v>250</v>
+        <v>249.973877</v>
       </c>
       <c r="F114">
         <f>IF(AND(E114&gt;=C114,E114&lt;=D114), "PASS", "FAIL")</f>
@@ -2672,7 +2672,7 @@
         <v>301</v>
       </c>
       <c r="E115" t="n">
-        <v>301</v>
+        <v>299.9742127</v>
       </c>
       <c r="F115">
         <f>IF(AND(E115&gt;=C115,E115&lt;=D115), "PASS", "FAIL")</f>
@@ -2695,7 +2695,7 @@
         <v>50.15</v>
       </c>
       <c r="E116" t="n">
-        <v>50</v>
+        <v>50.02226639</v>
       </c>
       <c r="F116">
         <f>IF(AND(E116&gt;=C116,E116&lt;=D116), "PASS", "FAIL")</f>
@@ -2713,7 +2713,7 @@
         <v>100.3</v>
       </c>
       <c r="E117" t="n">
-        <v>100</v>
+        <v>100.0406723</v>
       </c>
       <c r="F117">
         <f>IF(AND(E117&gt;=C117,E117&lt;=D117), "PASS", "FAIL")</f>
@@ -2731,7 +2731,7 @@
         <v>150.45</v>
       </c>
       <c r="E118" t="n">
-        <v>150</v>
+        <v>150.0612488</v>
       </c>
       <c r="F118">
         <f>IF(AND(E118&gt;=C118,E118&lt;=D118), "PASS", "FAIL")</f>
@@ -2749,7 +2749,7 @@
         <v>200.6</v>
       </c>
       <c r="E119" t="n">
-        <v>200</v>
+        <v>200.0887146</v>
       </c>
       <c r="F119">
         <f>IF(AND(E119&gt;=C119,E119&lt;=D119), "PASS", "FAIL")</f>
@@ -2767,7 +2767,7 @@
         <v>250.75</v>
       </c>
       <c r="E120" t="n">
-        <v>250</v>
+        <v>250.1210632</v>
       </c>
       <c r="F120">
         <f>IF(AND(E120&gt;=C120,E120&lt;=D120), "PASS", "FAIL")</f>
@@ -2785,7 +2785,7 @@
         <v>301</v>
       </c>
       <c r="E121" t="n">
-        <v>301</v>
+        <v>300.1522827</v>
       </c>
       <c r="F121">
         <f>IF(AND(E121&gt;=C121,E121&lt;=D121), "PASS", "FAIL")</f>
@@ -2808,7 +2808,7 @@
         <v>50.15</v>
       </c>
       <c r="E122" t="n">
-        <v>50</v>
+        <v>49.98723984</v>
       </c>
       <c r="F122">
         <f>IF(AND(E122&gt;=C122,E122&lt;=D122), "PASS", "FAIL")</f>
@@ -2826,7 +2826,7 @@
         <v>100.3</v>
       </c>
       <c r="E123" t="n">
-        <v>100</v>
+        <v>99.97477722000001</v>
       </c>
       <c r="F123">
         <f>IF(AND(E123&gt;=C123,E123&lt;=D123), "PASS", "FAIL")</f>
@@ -2844,7 +2844,7 @@
         <v>150.45</v>
       </c>
       <c r="E124" t="n">
-        <v>150</v>
+        <v>149.9635773</v>
       </c>
       <c r="F124">
         <f>IF(AND(E124&gt;=C124,E124&lt;=D124), "PASS", "FAIL")</f>
@@ -2862,7 +2862,7 @@
         <v>200.6</v>
       </c>
       <c r="E125" t="n">
-        <v>200</v>
+        <v>199.9577332</v>
       </c>
       <c r="F125">
         <f>IF(AND(E125&gt;=C125,E125&lt;=D125), "PASS", "FAIL")</f>
@@ -2880,7 +2880,7 @@
         <v>250.75</v>
       </c>
       <c r="E126" t="n">
-        <v>250</v>
+        <v>249.9568787</v>
       </c>
       <c r="F126">
         <f>IF(AND(E126&gt;=C126,E126&lt;=D126), "PASS", "FAIL")</f>
@@ -2898,7 +2898,7 @@
         <v>301</v>
       </c>
       <c r="E127" t="n">
-        <v>301</v>
+        <v>299.9562073</v>
       </c>
       <c r="F127">
         <f>IF(AND(E127&gt;=C127,E127&lt;=D127), "PASS", "FAIL")</f>
@@ -2921,7 +2921,7 @@
         <v>1.003</v>
       </c>
       <c r="E128" t="n">
-        <v>0.99952531</v>
+        <v>0.99959606</v>
       </c>
       <c r="F128">
         <f>IF(AND(E128&gt;=C128,E128&lt;=D128), "PASS", "FAIL")</f>
@@ -2939,7 +2939,7 @@
         <v>2.006</v>
       </c>
       <c r="E129" t="n">
-        <v>1.99924719</v>
+        <v>1.99923086</v>
       </c>
       <c r="F129">
         <f>IF(AND(E129&gt;=C129,E129&lt;=D129), "PASS", "FAIL")</f>
@@ -2957,7 +2957,7 @@
         <v>3.009</v>
       </c>
       <c r="E130" t="n">
-        <v>2.9996326</v>
+        <v>2.9995532</v>
       </c>
       <c r="F130">
         <f>IF(AND(E130&gt;=C130,E130&lt;=D130), "PASS", "FAIL")</f>
@@ -2975,7 +2975,7 @@
         <v>4.012</v>
       </c>
       <c r="E131" t="n">
-        <v>3.99974108</v>
+        <v>3.99963331</v>
       </c>
       <c r="F131">
         <f>IF(AND(E131&gt;=C131,E131&lt;=D131), "PASS", "FAIL")</f>
@@ -2993,7 +2993,7 @@
         <v>5.015</v>
       </c>
       <c r="E132" t="n">
-        <v>5.00013781</v>
+        <v>4.99973106</v>
       </c>
       <c r="F132">
         <f>IF(AND(E132&gt;=C132,E132&lt;=D132), "PASS", "FAIL")</f>
@@ -3011,7 +3011,7 @@
         <v>6.018</v>
       </c>
       <c r="E133" t="n">
-        <v>6.00014973</v>
+        <v>5.99980402</v>
       </c>
       <c r="F133">
         <f>IF(AND(E133&gt;=C133,E133&lt;=D133), "PASS", "FAIL")</f>
@@ -3034,7 +3034,7 @@
         <v>1.003</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9997226</v>
+        <v>0.99983448</v>
       </c>
       <c r="F134">
         <f>IF(AND(E134&gt;=C134,E134&lt;=D134), "PASS", "FAIL")</f>
@@ -3052,7 +3052,7 @@
         <v>2.006</v>
       </c>
       <c r="E135" t="n">
-        <v>1.9996196</v>
+        <v>1.99933589</v>
       </c>
       <c r="F135">
         <f>IF(AND(E135&gt;=C135,E135&lt;=D135), "PASS", "FAIL")</f>
@@ -3070,7 +3070,7 @@
         <v>3.009</v>
       </c>
       <c r="E136" t="n">
-        <v>3.00004983</v>
+        <v>3.00002217</v>
       </c>
       <c r="F136">
         <f>IF(AND(E136&gt;=C136,E136&lt;=D136), "PASS", "FAIL")</f>
@@ -3088,7 +3088,7 @@
         <v>4.012</v>
       </c>
       <c r="E137" t="n">
-        <v>4.0004735</v>
+        <v>4.00015879</v>
       </c>
       <c r="F137">
         <f>IF(AND(E137&gt;=C137,E137&lt;=D137), "PASS", "FAIL")</f>
@@ -3106,7 +3106,7 @@
         <v>5.015</v>
       </c>
       <c r="E138" t="n">
-        <v>5.00082779</v>
+        <v>5.00021744</v>
       </c>
       <c r="F138">
         <f>IF(AND(E138&gt;=C138,E138&lt;=D138), "PASS", "FAIL")</f>
@@ -3124,7 +3124,7 @@
         <v>6.018</v>
       </c>
       <c r="E139" t="n">
-        <v>6.00077391</v>
+        <v>6.00050068</v>
       </c>
       <c r="F139">
         <f>IF(AND(E139&gt;=C139,E139&lt;=D139), "PASS", "FAIL")</f>
@@ -3147,7 +3147,7 @@
         <v>1.003</v>
       </c>
       <c r="E140" t="n">
-        <v>0.99990565</v>
+        <v>0.99996686</v>
       </c>
       <c r="F140">
         <f>IF(AND(E140&gt;=C140,E140&lt;=D140), "PASS", "FAIL")</f>
@@ -3165,7 +3165,7 @@
         <v>2.006</v>
       </c>
       <c r="E141" t="n">
-        <v>1.99978471</v>
+        <v>1.99979329</v>
       </c>
       <c r="F141">
         <f>IF(AND(E141&gt;=C141,E141&lt;=D141), "PASS", "FAIL")</f>
@@ -3183,7 +3183,7 @@
         <v>3.009</v>
       </c>
       <c r="E142" t="n">
-        <v>3.00055504</v>
+        <v>3.00052619</v>
       </c>
       <c r="F142">
         <f>IF(AND(E142&gt;=C142,E142&lt;=D142), "PASS", "FAIL")</f>
@@ -3201,7 +3201,7 @@
         <v>4.012</v>
       </c>
       <c r="E143" t="n">
-        <v>4.00096369</v>
+        <v>4.00059748</v>
       </c>
       <c r="F143">
         <f>IF(AND(E143&gt;=C143,E143&lt;=D143), "PASS", "FAIL")</f>
@@ -3219,7 +3219,7 @@
         <v>5.015</v>
       </c>
       <c r="E144" t="n">
-        <v>5.00128889</v>
+        <v>5.00093699</v>
       </c>
       <c r="F144">
         <f>IF(AND(E144&gt;=C144,E144&lt;=D144), "PASS", "FAIL")</f>
@@ -3237,7 +3237,7 @@
         <v>6.018</v>
       </c>
       <c r="E145" t="n">
-        <v>6.00170803</v>
+        <v>6.0013051</v>
       </c>
       <c r="F145">
         <f>IF(AND(E145&gt;=C145,E145&lt;=D145), "PASS", "FAIL")</f>
@@ -3260,7 +3260,7 @@
         <v>60.25</v>
       </c>
       <c r="E146" t="n">
-        <v>60.26304637721221</v>
+        <v>59.74320700190984</v>
       </c>
       <c r="F146">
         <f>IF(AND(E146&gt;=C146,E146&lt;=D146), "PASS", "FAIL")</f>
@@ -3278,7 +3278,7 @@
         <v>120.25</v>
       </c>
       <c r="E147" t="n">
-        <v>120.2972119614733</v>
+        <v>119.820850729054</v>
       </c>
       <c r="F147">
         <f>IF(AND(E147&gt;=C147,E147&lt;=D147), "PASS", "FAIL")</f>
@@ -3296,7 +3296,7 @@
         <v>180.25</v>
       </c>
       <c r="E148" t="n">
-        <v>179.7593575491723</v>
+        <v>179.8310016687913</v>
       </c>
       <c r="F148">
         <f>IF(AND(E148&gt;=C148,E148&lt;=D148), "PASS", "FAIL")</f>
@@ -3319,7 +3319,7 @@
         <v>60.25</v>
       </c>
       <c r="E149" t="n">
-        <v>60.23295852263566</v>
+        <v>60.26567585539543</v>
       </c>
       <c r="F149">
         <f>IF(AND(E149&gt;=C149,E149&lt;=D149), "PASS", "FAIL")</f>
@@ -3337,7 +3337,7 @@
         <v>120.25</v>
       </c>
       <c r="E150" t="n">
-        <v>120.2331134184667</v>
+        <v>120.2228403126439</v>
       </c>
       <c r="F150">
         <f>IF(AND(E150&gt;=C150,E150&lt;=D150), "PASS", "FAIL")</f>
@@ -3355,7 +3355,7 @@
         <v>180.25</v>
       </c>
       <c r="E151" t="n">
-        <v>179.768394454297</v>
+        <v>179.7521003615561</v>
       </c>
       <c r="F151">
         <f>IF(AND(E151&gt;=C151,E151&lt;=D151), "PASS", "FAIL")</f>
@@ -3378,7 +3378,7 @@
         <v>60.25</v>
       </c>
       <c r="E152" t="n">
-        <v>60.21943581112865</v>
+        <v>60.18208208973662</v>
       </c>
       <c r="F152">
         <f>IF(AND(E152&gt;=C152,E152&lt;=D152), "PASS", "FAIL")</f>
@@ -3396,7 +3396,7 @@
         <v>120.25</v>
       </c>
       <c r="E153" t="n">
-        <v>120.2084549933066</v>
+        <v>119.8226965800915</v>
       </c>
       <c r="F153">
         <f>IF(AND(E153&gt;=C153,E153&lt;=D153), "PASS", "FAIL")</f>
@@ -3414,7 +3414,7 @@
         <v>180.25</v>
       </c>
       <c r="E154" t="n">
-        <v>179.8082515568856</v>
+        <v>179.8175508714256</v>
       </c>
       <c r="F154">
         <f>IF(AND(E154&gt;=C154,E154&lt;=D154), "PASS", "FAIL")</f>
@@ -3437,7 +3437,7 @@
         <v>60.25</v>
       </c>
       <c r="E155" t="n">
-        <v>60.2292403880278</v>
+        <v>59.80823573340545</v>
       </c>
       <c r="F155">
         <f>IF(AND(E155&gt;=C155,E155&lt;=D155), "PASS", "FAIL")</f>
@@ -3455,7 +3455,7 @@
         <v>120.25</v>
       </c>
       <c r="E156" t="n">
-        <v>120.2336267040371</v>
+        <v>120.1820376561165</v>
       </c>
       <c r="F156">
         <f>IF(AND(E156&gt;=C156,E156&lt;=D156), "PASS", "FAIL")</f>
@@ -3473,7 +3473,7 @@
         <v>180.25</v>
       </c>
       <c r="E157" t="n">
-        <v>179.7770611051297</v>
+        <v>179.8041857628028</v>
       </c>
       <c r="F157">
         <f>IF(AND(E157&gt;=C157,E157&lt;=D157), "PASS", "FAIL")</f>
@@ -3496,7 +3496,7 @@
         <v>60.25</v>
       </c>
       <c r="E158" t="n">
-        <v>59.80549734096019</v>
+        <v>59.78372404587272</v>
       </c>
       <c r="F158">
         <f>IF(AND(E158&gt;=C158,E158&lt;=D158), "PASS", "FAIL")</f>
@@ -3514,7 +3514,7 @@
         <v>120.25</v>
       </c>
       <c r="E159" t="n">
-        <v>119.7908741234901</v>
+        <v>119.7633360212502</v>
       </c>
       <c r="F159">
         <f>IF(AND(E159&gt;=C159,E159&lt;=D159), "PASS", "FAIL")</f>
@@ -3532,7 +3532,7 @@
         <v>180.25</v>
       </c>
       <c r="E160" t="n">
-        <v>179.8241476184619</v>
+        <v>179.7726864726307</v>
       </c>
       <c r="F160">
         <f>IF(AND(E160&gt;=C160,E160&lt;=D160), "PASS", "FAIL")</f>
@@ -3555,7 +3555,7 @@
         <v>60.25</v>
       </c>
       <c r="E161" t="n">
-        <v>59.78603605450781</v>
+        <v>59.86496849718331</v>
       </c>
       <c r="F161">
         <f>IF(AND(E161&gt;=C161,E161&lt;=D161), "PASS", "FAIL")</f>
@@ -3573,7 +3573,7 @@
         <v>120.25</v>
       </c>
       <c r="E162" t="n">
-        <v>119.7979768913345</v>
+        <v>119.8689642855583</v>
       </c>
       <c r="F162">
         <f>IF(AND(E162&gt;=C162,E162&lt;=D162), "PASS", "FAIL")</f>
@@ -3591,7 +3591,7 @@
         <v>180.25</v>
       </c>
       <c r="E163" t="n">
-        <v>179.8031824372122</v>
+        <v>179.8644134072302</v>
       </c>
       <c r="F163">
         <f>IF(AND(E163&gt;=C163,E163&lt;=D163), "PASS", "FAIL")</f>
